--- a/fhir/core/ValueSet-dk-core-IEEEBasicObservation.xlsx
+++ b/fhir/core/ValueSet-dk-core-IEEEBasicObservation.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-08T21:51:35+01:00</t>
+    <t>2024-05-06T15:28:33+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Denmark (http://www.hl7.dk, jenskristianvilladsen@gmail.com)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/fhir/core/ValueSet-dk-core-IEEEBasicObservation.xlsx
+++ b/fhir/core/ValueSet-dk-core-IEEEBasicObservation.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from ISO 11073-10101 " r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.2.0</t>
+    <t>3.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-06T15:28:33+02:00</t>
+    <t>2024-12-11T09:54:35+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/core/ValueSet-dk-core-IEEEBasicObservation.xlsx
+++ b/fhir/core/ValueSet-dk-core-IEEEBasicObservation.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T09:54:35+01:00</t>
+    <t>2024-12-11T10:20:02+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/core/ValueSet-dk-core-IEEEBasicObservation.xlsx
+++ b/fhir/core/ValueSet-dk-core-IEEEBasicObservation.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T10:20:02+01:00</t>
+    <t>2025-02-01T19:23:09+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -101,7 +101,7 @@
     <t>Copyright</t>
   </si>
   <si>
-    <t>IEEE</t>
+    <t>This material contains content from IEEE-SA (https://standards.ieee.org/), copyright © the Insitute of Electrical and Electronics Engineers, Inc.</t>
   </si>
   <si>
     <t>Immutable</t>

--- a/fhir/core/ValueSet-dk-core-IEEEBasicObservation.xlsx
+++ b/fhir/core/ValueSet-dk-core-IEEEBasicObservation.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-01T19:23:09+01:00</t>
+    <t>2025-12-19T17:27:08+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>HL7 Denmark (http://www.hl7.dk, jenskristianvilladsen@gmail.com)</t>
+    <t>HL7 Denmark (http://www.hl7.dk, dk-affiliate@hl7.dk)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -116,217 +116,109 @@
     <t>151562</t>
   </si>
   <si>
-    <t>MDC_RESP_RATE</t>
-  </si>
-  <si>
     <t>151570</t>
   </si>
   <si>
-    <t>MDC_AWAY_RESP_RATE</t>
-  </si>
-  <si>
     <t>151578</t>
   </si>
   <si>
-    <t>MDC_TTHOR_RESP_RATE</t>
-  </si>
-  <si>
     <t>151594</t>
   </si>
   <si>
-    <t>MDC_CO2_RESP_RATE</t>
-  </si>
-  <si>
     <t>151602</t>
   </si>
   <si>
-    <t>MDC_PRESS_RESP_RATE</t>
-  </si>
-  <si>
     <t>151650</t>
   </si>
   <si>
-    <t>MDC_ACOUSTIC_RESP_RATE</t>
-  </si>
-  <si>
     <t>151658</t>
   </si>
   <si>
-    <t>MDC_PULS_OXIM_PLETH_RESP_RATE</t>
-  </si>
-  <si>
     <t>8410992</t>
   </si>
   <si>
-    <t>MDC_SABTE_RESP_RATE</t>
-  </si>
-  <si>
     <t>149514</t>
   </si>
   <si>
-    <t>MDC_PULS_RATE</t>
-  </si>
-  <si>
     <t>149522</t>
   </si>
   <si>
-    <t>MDC_BLD_PULS_RATE_INV</t>
-  </si>
-  <si>
     <t>149546</t>
   </si>
   <si>
-    <t>MDC_PULS_RATE_NON_INV</t>
-  </si>
-  <si>
     <t>149530</t>
   </si>
   <si>
-    <t>MDC_PULS_OXIM_PULS_RATE</t>
-  </si>
-  <si>
     <t>147842</t>
   </si>
   <si>
-    <t>MDC_ECG_HEART_RATE</t>
-  </si>
-  <si>
     <t>8410590</t>
   </si>
   <si>
-    <t>MDC_ECG_HEART_RATE_INSTANT</t>
-  </si>
-  <si>
     <t>149554</t>
   </si>
   <si>
-    <t>MDC_TTHOR_HEART_RATE</t>
-  </si>
-  <si>
     <t>149562</t>
   </si>
   <si>
-    <t>MDC_PALPATION_HEART_RATE</t>
-  </si>
-  <si>
     <t>8454258</t>
   </si>
   <si>
-    <t>MDC_HF_HR</t>
-  </si>
-  <si>
     <t>150324</t>
   </si>
   <si>
-    <t>MDC_SAT_O2_ART</t>
-  </si>
-  <si>
     <t>150456</t>
   </si>
   <si>
-    <t>MDC_PULS_OXIM_SAT_O2</t>
-  </si>
-  <si>
     <t>150364</t>
   </si>
   <si>
-    <t>MDC_TEMP_BODY</t>
-  </si>
-  <si>
     <t>150368</t>
   </si>
   <si>
-    <t>MDC_TEMP_CORE</t>
-  </si>
-  <si>
     <t>150388</t>
   </si>
   <si>
-    <t>MDC_TEMP_SKIN</t>
-  </si>
-  <si>
     <t>150392</t>
   </si>
   <si>
-    <t>MDC_TEMP_TYMP</t>
-  </si>
-  <si>
     <t>188420</t>
   </si>
   <si>
-    <t>MDC_TEMP_RECT</t>
-  </si>
-  <si>
     <t>188424</t>
   </si>
   <si>
-    <t>MDC_TEMP_ORAL</t>
-  </si>
-  <si>
     <t>188428</t>
   </si>
   <si>
-    <t>MDC_TEMP_EAR</t>
-  </si>
-  <si>
     <t>188452</t>
   </si>
   <si>
-    <t>MDC_TEMP_AXILLA</t>
-  </si>
-  <si>
     <t>188456</t>
   </si>
   <si>
-    <t>MDC_TEMP_GIT</t>
-  </si>
-  <si>
     <t>188740</t>
   </si>
   <si>
-    <t>MDC_LEN_BODY_ACTUAL</t>
-  </si>
-  <si>
     <t>153856</t>
   </si>
   <si>
-    <t>MDC_CIRCUM_HEAD</t>
-  </si>
-  <si>
     <t>188736</t>
   </si>
   <si>
-    <t>MDC_MASS_BODY_ACTUAL</t>
-  </si>
-  <si>
     <t>188752</t>
   </si>
   <si>
-    <t>MDC_RATIO_MASS_BODY_LEN_SQ</t>
-  </si>
-  <si>
     <t>150020</t>
   </si>
   <si>
-    <t>MDC_PRESS_BLD_NONINV</t>
-  </si>
-  <si>
     <t>150021</t>
   </si>
   <si>
-    <t>MDC_PRESS_BLD_NONINV_SYS</t>
-  </si>
-  <si>
     <t>150022</t>
   </si>
   <si>
-    <t>MDC_PRESS_BLD_NONINV_DIA</t>
-  </si>
-  <si>
     <t>150023</t>
-  </si>
-  <si>
-    <t>MDC_PRESS_BLD_NONINV_MEAN</t>
   </si>
   <si>
     <t/>
@@ -628,304 +520,232 @@
       <c r="A2" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="B2" t="s" s="2">
-        <v>32</v>
-      </c>
+      <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>34</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>46</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>48</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>50</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>52</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>54</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>56</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>58</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>60</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>62</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>64</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>66</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>68</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>84</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>86</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>88</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="B30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>90</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>94</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="B33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="B34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="B35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="B36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>103</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>105</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
